--- a/data/뷰티.xlsx
+++ b/data/뷰티.xlsx
@@ -456,10 +456,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2016</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -471,17 +469,13 @@
           <t>B-1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="D2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2016</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -493,17 +487,13 @@
           <t>B-2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+      <c r="D3" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2017</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -515,17 +505,13 @@
           <t>B-1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22222</t>
-        </is>
+      <c r="D4" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2017</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -537,17 +523,13 @@
           <t>B-2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="D5" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2018</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -559,17 +541,13 @@
           <t>B-1</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
+      <c r="D6" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2018</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -581,10 +559,8 @@
           <t>B-2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
+      <c r="D7" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
